--- a/modelo-informacao/mi-requisicao.xlsx
+++ b/modelo-informacao/mi-requisicao.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>Nível</t>
   </si>
@@ -300,10 +300,34 @@
     <t>RN06: preenchido somente se o país de nascimento for Brasil.</t>
   </si>
   <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>RN07: preenchido somente se o país de nascimento for Brasil.</t>
+    <t>Endereço de residência</t>
+  </si>
+  <si>
+    <t>Especialização de Address para o Brasil</t>
+  </si>
+  <si>
+    <t>Profile:
+http://www.saude.gov.br/fhir/r4/StructureDefinition/BREndereco-1.0
+Detalhamento:
+https://simplifier.net/redenacionaldedadosemsaude/brendereco</t>
+  </si>
+  <si>
+    <t>0..*</t>
+  </si>
+  <si>
+    <t>Meio de contato</t>
+  </si>
+  <si>
+    <t>Especialização de ContactPoing para o Brasil</t>
+  </si>
+  <si>
+    <t>Profile:
+http://www.saude.gov.br/fhir/r4/StructureDefinition/BRMeioContato-1.0
+Detalhamento:
+https://simplifier.net/redenacionaldedadosemsaude/brmeiocontato</t>
+  </si>
+  <si>
+    <t>Número de telefone, email, URL ou outro.</t>
   </si>
 </sst>
 </file>
@@ -346,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -357,7 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -641,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +837,7 @@
       <c r="C10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -834,7 +857,7 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -844,7 +867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -854,186 +877,190 @@
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,50 +1085,47 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -1115,36 +1139,36 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1155,10 +1179,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>31</v>
@@ -1167,65 +1191,85 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>3</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>2</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>64</v>
       </c>
     </row>

--- a/modelo-informacao/mi-requisicao.xlsx
+++ b/modelo-informacao/mi-requisicao.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Nível</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Profissional de saúde</t>
   </si>
   <si>
-    <t>Identificação unívoca do profissional técnico que oferece a assistência, seja Cartão Nacional de Saúde (CNS) ou o Cadastro de Pessoa Física (CPF).</t>
-  </si>
-  <si>
     <t>Caracters numéricos</t>
   </si>
   <si>
@@ -86,24 +83,12 @@
     <t>Conforme ISO 8601</t>
   </si>
   <si>
-    <t>**Informações pessoais**</t>
-  </si>
-  <si>
-    <t>Informações complementares sobre a usuária</t>
-  </si>
-  <si>
     <t>0..1</t>
   </si>
   <si>
     <t>Escolaridade</t>
   </si>
   <si>
-    <t>O nível educacional mais alto obtido pelo usuária.</t>
-  </si>
-  <si>
-    <t>Conforme [LOINC LL836-8](https://loinc.org/LL836-8/)</t>
-  </si>
-  <si>
     <t>**Anamnese**</t>
   </si>
   <si>
@@ -125,43 +110,7 @@
     <t>(a) SIM, (b) NÃO ou (c) NÃO SABE. Veja [aqui](https://terminology.hl7.org/CodeSystem-v2-0532.html)</t>
   </si>
   <si>
-    <t>Data de realização do exame ([LOINC 60432-2](https://loinc.org/60432-2/))</t>
-  </si>
-  <si>
-    <t>RN01: a data deve ser fornecida apenas se a resposta para o item anterior é SIM.</t>
-  </si>
-  <si>
-    <t>Método contraceptivo DIU ([LOING LL4578-2](https://loinc.org/LL4578-2/))</t>
-  </si>
-  <si>
-    <t>Informa se a usuária faz uso de DIU.</t>
-  </si>
-  <si>
-    <t>Sim, não ou não sabe.</t>
-  </si>
-  <si>
-    <t>Gravidez ([LOINC 66174-4](https://loinc.org/66174-4/) )</t>
-  </si>
-  <si>
-    <t>Informa se a usuária está grávida.</t>
-  </si>
-  <si>
-    <t>Sim, não, não sabe</t>
-  </si>
-  <si>
-    <t>1..N</t>
-  </si>
-  <si>
-    <t>Método contraceptivo anticoncepcional ([LOING LL4578-2](https://loinc.org/LL4578-2/))</t>
-  </si>
-  <si>
-    <t>Informa se faz uso de pílula anticoncepcional.</t>
-  </si>
-  <si>
     <t>Emprego de hormônio na menopausa</t>
-  </si>
-  <si>
-    <t>Informa se faz uso de hormônio em tratamento de menopausa. Ver [LOINC 63873-4](https://loinc.org/63873-4/)</t>
   </si>
   <si>
     <t>(a) SIM, (b) NÃO ou (c) NÃO SABE.</t>
@@ -328,13 +277,65 @@
   </si>
   <si>
     <t>Número de telefone, email, URL ou outro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nível educacional mais alto obtido pelo usuária. </t>
+  </si>
+  <si>
+    <t>Há dois códigos LOINC para esta informação: 
+https://loinc.org/82589-3/ e
+https://loinc.org/63504-5/. Precisa verificar quais os códigos e o significado esperado para as respostas para eventuais outros usos. Por exemplo, foi definido um novo ValueSet, mas https://loinc.org/LL836-8/ seria suficiente?</t>
+  </si>
+  <si>
+    <t>Identificação unívoca do profissional técnico que oferece a assistência, seja Cartão Nacional de Saúde (CNS) ou o Cadastro de Pessoa Física (CPF). Este é o profissional que realiza a coleta da amostra para o exame.</t>
+  </si>
+  <si>
+    <t>NamingSystem pertinentes: http://www.saude.gov.br/fhir/r4/NamingSystem/cnes
+e
+http://www.saude.gov.br/fhir/r4/NamingSystem/cnpj</t>
+  </si>
+  <si>
+    <t>Data de realização do exame</t>
+  </si>
+  <si>
+    <t>"Data of previous PAP smear" [LOINC 60432-2](https://loinc.org/60432-2/)
+RN05: a data deve ser fornecida apenas se a resposta para o item anterior é SIM.</t>
+  </si>
+  <si>
+    <t>Método contraceptivo</t>
+  </si>
+  <si>
+    <t>Método empregado, se for o caso.</t>
+  </si>
+  <si>
+    <t>https://loinc.org/LL4578-2/ define uma lista, dentre elas o DIU</t>
+  </si>
+  <si>
+    <t>Gravidez</t>
+  </si>
+  <si>
+    <t>"Are you currently pregnant?" https://loinc.org/66174-4/</t>
+  </si>
+  <si>
+    <t>Sim - LOINC LA33-6
+Não - LOINC LA32-8
+Não sabe - LOINC LA12688-0</t>
+  </si>
+  <si>
+    <t>Não - LOINC LA32-8
+Sim e está tomando - LOINC LA16021-0
+Sim, mas não está tomando mais - LOINC LA16022-8</t>
+  </si>
+  <si>
+    <t>"Have you ever taken estrogen, female hormones, for symptoms of menopause, the change of life, or for other reasons"
+Ver [LOINC 63873-4](https://loinc.org/63873-4/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +346,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,8 +394,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -719,19 +733,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -739,13 +753,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -756,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -767,13 +781,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -784,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -798,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -815,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -832,19 +846,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -852,19 +866,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -872,17 +886,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -890,140 +904,155 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1031,39 +1060,39 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1071,16 +1100,19 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -1088,13 +1120,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,179 +1137,145 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F23" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>